--- a/final_DE_UG_600_jobs.xlsx
+++ b/final_DE_UG_600_jobs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15145\Desktop\projects\DA_DataScience_jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AF477-87D6-443C-B688-B665BDD73522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1437EDA7-662E-42DA-9628-09373CBE4B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All DE DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Toolstats" sheetId="2" r:id="rId2"/>
     <sheet name="Language stats" sheetId="3" r:id="rId3"/>
     <sheet name="Packages stats" sheetId="4" r:id="rId4"/>
@@ -4370,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K473"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20953,7 +20953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
